--- a/유닛 및 건물/건물UI 및 알고리즘.xlsx
+++ b/유닛 및 건물/건물UI 및 알고리즘.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Sheperd_Holidays\유닛 및 건물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home_pc\OneDrive\바탕 화면\Sheperd_Holidays\유닛 및 건물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD76320C-EF10-4D33-A68B-529EE6092221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D4837B-4DE8-464B-A871-598B9F75750F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="17985" windowHeight="11745" xr2:uid="{3420EE1F-B79F-4D70-BE33-A8D37B33DBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="건물 목록" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>넥서스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -288,6 +284,10 @@
   <si>
     <t>대기열 이미지는 원형대기열에 각 유닛의 무기가 출력됩니다.
 (예 : 투창병은 대기열에 투척용 창, 기사는 검이 출력됩니다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,6 +515,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -545,32 +554,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,7 +865,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8610610" y="1875904"/>
+          <a:off x="8711055" y="1827413"/>
           <a:ext cx="905384" cy="864690"/>
           <a:chOff x="12839221" y="2643595"/>
           <a:chExt cx="1698649" cy="1407640"/>
@@ -1616,7 +1616,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7485225" y="1882061"/>
+          <a:off x="7585671" y="1833570"/>
           <a:ext cx="985972" cy="874746"/>
           <a:chOff x="10719773" y="2643596"/>
           <a:chExt cx="1829278" cy="1423851"/>
@@ -2063,7 +2063,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6420197" y="1852471"/>
+          <a:off x="6510251" y="1803980"/>
           <a:ext cx="822049" cy="874746"/>
           <a:chOff x="8840790" y="2659380"/>
           <a:chExt cx="1536985" cy="1423851"/>
@@ -2322,7 +2322,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6570315" y="3277253"/>
+          <a:off x="6660369" y="3225298"/>
           <a:ext cx="616934" cy="591435"/>
           <a:chOff x="9086844" y="5072464"/>
           <a:chExt cx="804402" cy="771155"/>
@@ -2713,7 +2713,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7686488" y="2897265"/>
+          <a:off x="7786934" y="2845310"/>
           <a:ext cx="611952" cy="995484"/>
           <a:chOff x="9086844" y="4550277"/>
           <a:chExt cx="804402" cy="1293342"/>
@@ -3104,7 +3104,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8800311" y="2884346"/>
+          <a:off x="8900756" y="2832391"/>
           <a:ext cx="540098" cy="977116"/>
           <a:chOff x="13277872" y="4213195"/>
           <a:chExt cx="918649" cy="1658587"/>
@@ -3833,7 +3833,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6408734" y="5332083"/>
+          <a:off x="6498788" y="5255883"/>
           <a:ext cx="910446" cy="494021"/>
           <a:chOff x="1154141" y="3146524"/>
           <a:chExt cx="1403436" cy="761525"/>
@@ -4766,7 +4766,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7530139" y="5228616"/>
+          <a:off x="7630585" y="5152416"/>
           <a:ext cx="859875" cy="552498"/>
           <a:chOff x="1154139" y="3006291"/>
           <a:chExt cx="1403438" cy="901756"/>
@@ -6019,7 +6019,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8600269" y="5237417"/>
+          <a:off x="8700714" y="5161217"/>
           <a:ext cx="919882" cy="521195"/>
           <a:chOff x="1077199" y="2996955"/>
           <a:chExt cx="1608034" cy="911094"/>
@@ -7847,8 +7847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="502920" y="64143"/>
-          <a:ext cx="3192780" cy="2280558"/>
+          <a:off x="504825" y="64143"/>
+          <a:ext cx="3211830" cy="2166258"/>
           <a:chOff x="4184266" y="2875644"/>
           <a:chExt cx="3506608" cy="2504721"/>
         </a:xfrm>
@@ -8921,8 +8921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="3767463"/>
-          <a:ext cx="3192780" cy="2280558"/>
+          <a:off x="0" y="3573153"/>
+          <a:ext cx="3213735" cy="2175783"/>
           <a:chOff x="4184266" y="2875644"/>
           <a:chExt cx="3506608" cy="2504721"/>
         </a:xfrm>
@@ -10707,8 +10707,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="297180" y="8903343"/>
-          <a:ext cx="3506608" cy="2504721"/>
+          <a:off x="297180" y="8455668"/>
+          <a:ext cx="3527563" cy="2378991"/>
           <a:chOff x="4184266" y="2875644"/>
           <a:chExt cx="3506608" cy="2504721"/>
         </a:xfrm>
@@ -11997,8 +11997,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4621398" y="438019"/>
-          <a:ext cx="350323" cy="352425"/>
+          <a:off x="4642353" y="417064"/>
+          <a:ext cx="365563" cy="339090"/>
           <a:chOff x="2693277" y="4770782"/>
           <a:chExt cx="352425" cy="352425"/>
         </a:xfrm>
@@ -12217,8 +12217,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6995686" y="264598"/>
-          <a:ext cx="924528" cy="569391"/>
+          <a:off x="7077601" y="253168"/>
+          <a:ext cx="939768" cy="546531"/>
           <a:chOff x="1830435" y="4024050"/>
           <a:chExt cx="924163" cy="569606"/>
         </a:xfrm>
@@ -12403,7 +12403,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12964,8 +12964,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8419838" y="322668"/>
-          <a:ext cx="1110502" cy="546434"/>
+          <a:off x="8532233" y="311238"/>
+          <a:ext cx="1140982" cy="523574"/>
           <a:chOff x="4756636" y="5096317"/>
           <a:chExt cx="1114707" cy="545646"/>
         </a:xfrm>
@@ -13355,7 +13355,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -13711,8 +13711,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10278855" y="263021"/>
-          <a:ext cx="1343279" cy="566437"/>
+          <a:off x="10436970" y="251591"/>
+          <a:ext cx="1373759" cy="543577"/>
           <a:chOff x="5312060" y="3257301"/>
           <a:chExt cx="1347483" cy="565912"/>
         </a:xfrm>
@@ -14102,7 +14102,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14458,8 +14458,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5676900" y="274320"/>
-          <a:ext cx="813151" cy="550589"/>
+          <a:off x="5728335" y="262890"/>
+          <a:ext cx="828391" cy="527729"/>
           <a:chOff x="1915973" y="4223746"/>
           <a:chExt cx="813151" cy="550589"/>
         </a:xfrm>
@@ -14644,7 +14644,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -21379,8 +21379,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10978739" y="2218707"/>
-          <a:ext cx="5794169" cy="3382785"/>
+          <a:off x="11065824" y="2082635"/>
+          <a:ext cx="5837712" cy="3178679"/>
           <a:chOff x="3238500" y="1707919"/>
           <a:chExt cx="5715000" cy="3442162"/>
         </a:xfrm>
@@ -22490,8 +22490,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="295835" y="259976"/>
-          <a:ext cx="3989354" cy="4177385"/>
+          <a:off x="295835" y="248770"/>
+          <a:ext cx="4027454" cy="3975680"/>
           <a:chOff x="803141" y="362122"/>
           <a:chExt cx="3989354" cy="4177385"/>
         </a:xfrm>
@@ -23632,8 +23632,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7109013" y="475128"/>
-          <a:ext cx="768294" cy="812389"/>
+          <a:off x="7191937" y="452717"/>
+          <a:ext cx="779500" cy="778771"/>
           <a:chOff x="7300136" y="3261253"/>
           <a:chExt cx="317284" cy="335494"/>
         </a:xfrm>
@@ -23856,8 +23856,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="468086" y="359228"/>
-          <a:ext cx="9611645" cy="4196244"/>
+          <a:off x="468086" y="345621"/>
+          <a:ext cx="9687845" cy="3937708"/>
           <a:chOff x="855280" y="1354051"/>
           <a:chExt cx="9550685" cy="4261558"/>
         </a:xfrm>
@@ -27188,8 +27188,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10735490" y="837110"/>
-          <a:ext cx="5838899" cy="3330534"/>
+          <a:off x="10817133" y="796288"/>
+          <a:ext cx="5887884" cy="3112821"/>
           <a:chOff x="3238500" y="1707919"/>
           <a:chExt cx="5715000" cy="3442162"/>
         </a:xfrm>
@@ -29452,8 +29452,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5836146" y="318702"/>
-          <a:ext cx="1372646" cy="2785794"/>
+          <a:off x="5925793" y="307496"/>
+          <a:ext cx="1395058" cy="2651324"/>
           <a:chOff x="6465541" y="762113"/>
           <a:chExt cx="1369061" cy="2748143"/>
         </a:xfrm>
@@ -30265,8 +30265,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7669709" y="333805"/>
-          <a:ext cx="2047528" cy="2775634"/>
+          <a:off x="7792974" y="322599"/>
+          <a:ext cx="2081146" cy="2641164"/>
           <a:chOff x="8317233" y="767218"/>
           <a:chExt cx="2042149" cy="2737983"/>
         </a:xfrm>
@@ -31341,8 +31341,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4138235" y="318702"/>
-          <a:ext cx="1276205" cy="2785794"/>
+          <a:off x="4205470" y="307496"/>
+          <a:ext cx="1298617" cy="2651324"/>
           <a:chOff x="4619819" y="896091"/>
           <a:chExt cx="1272619" cy="2748143"/>
         </a:xfrm>
@@ -32512,8 +32512,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106680" y="4023360"/>
-          <a:ext cx="1996591" cy="2626971"/>
+          <a:off x="106680" y="3832860"/>
+          <a:ext cx="2030208" cy="2492500"/>
           <a:chOff x="2816458" y="754380"/>
           <a:chExt cx="2741944" cy="3565549"/>
         </a:xfrm>
@@ -33776,8 +33776,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="533400" y="5243214"/>
-          <a:ext cx="746171" cy="754312"/>
+          <a:off x="533400" y="4985479"/>
+          <a:ext cx="757377" cy="720694"/>
           <a:chOff x="0" y="-689"/>
           <a:chExt cx="984934" cy="985623"/>
         </a:xfrm>
@@ -35038,8 +35038,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7046256" y="4061011"/>
-          <a:ext cx="1991212" cy="2589319"/>
+          <a:off x="7158315" y="3859305"/>
+          <a:ext cx="2024830" cy="2466054"/>
           <a:chOff x="2816458" y="754380"/>
           <a:chExt cx="2741944" cy="3565549"/>
         </a:xfrm>
@@ -36456,8 +36456,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3648635" y="4016188"/>
-          <a:ext cx="1991212" cy="2589316"/>
+          <a:off x="3704664" y="3825688"/>
+          <a:ext cx="2024830" cy="2454845"/>
           <a:chOff x="4954952" y="620530"/>
           <a:chExt cx="1991212" cy="2589316"/>
         </a:xfrm>
@@ -38515,8 +38515,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="122586" y="2865120"/>
-          <a:ext cx="1991212" cy="2589319"/>
+          <a:off x="122586" y="2727960"/>
+          <a:ext cx="2036932" cy="2452159"/>
           <a:chOff x="2816458" y="754380"/>
           <a:chExt cx="2741944" cy="3565549"/>
         </a:xfrm>
@@ -39779,8 +39779,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8053754" y="2865120"/>
-          <a:ext cx="1991212" cy="2589316"/>
+          <a:off x="8236634" y="2727960"/>
+          <a:ext cx="2021692" cy="2452156"/>
           <a:chOff x="2816458" y="754380"/>
           <a:chExt cx="2741944" cy="3565549"/>
         </a:xfrm>
@@ -41005,8 +41005,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="544324" y="4072041"/>
-          <a:ext cx="772102" cy="744378"/>
+          <a:off x="544324" y="3866301"/>
+          <a:ext cx="787342" cy="710088"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1021618" cy="984934"/>
         </a:xfrm>
@@ -43590,8 +43590,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="304800"/>
-          <a:ext cx="5969176" cy="4903675"/>
+          <a:off x="228600" y="293370"/>
+          <a:ext cx="6106336" cy="4652215"/>
           <a:chOff x="1347224" y="917357"/>
           <a:chExt cx="5969176" cy="4903675"/>
         </a:xfrm>
@@ -46109,22 +46109,22 @@
   <dimension ref="A3:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" customWidth="1"/>
-    <col min="8" max="8" width="14.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" customWidth="1"/>
-    <col min="11" max="11" width="6.09765625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="6.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -46132,7 +46132,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -46159,21 +46159,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6">
         <v>500</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -46184,9 +46184,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="86.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="86.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6">
         <v>200</v>
@@ -46201,7 +46201,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -46211,9 +46211,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6">
         <v>200</v>
@@ -46228,7 +46228,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -46238,9 +46238,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6">
         <v>1000</v>
@@ -46255,7 +46255,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -46265,9 +46265,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="85.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="85.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6">
         <v>150</v>
@@ -46282,7 +46282,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -46292,9 +46292,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="89.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="89.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6">
         <v>150</v>
@@ -46306,10 +46306,10 @@
         <v>150</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -46319,9 +46319,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="94.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6">
         <v>150</v>
@@ -46333,10 +46333,10 @@
         <v>300</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -46346,7 +46346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -46355,7 +46355,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="94.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="94.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -46380,241 +46380,241 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F10" s="36" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F10" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="F11" s="31" t="s">
-        <v>51</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>42</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
     </row>
-    <row r="27" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="33" t="s">
-        <v>38</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="36" t="s">
+        <v>37</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>1</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>2</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>3</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="D37" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="28"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F41" s="17"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
@@ -46622,7 +46622,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
@@ -46630,7 +46630,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
@@ -46638,7 +46638,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
@@ -46646,7 +46646,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
@@ -46654,50 +46654,50 @@
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="16"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="12"/>
-      <c r="B53" s="35" t="s">
-        <v>49</v>
+      <c r="B53" s="38" t="s">
+        <v>48</v>
       </c>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
@@ -46727,31 +46727,31 @@
       <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
         <v>36</v>
       </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -46773,61 +46773,61 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="17" max="17" width="10.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="13:17" x14ac:dyDescent="0.4">
-      <c r="M3" s="36" t="s">
+    <row r="3" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M3" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="39"/>
+    </row>
+    <row r="4" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="36"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
     </row>
-    <row r="4" spans="13:17" x14ac:dyDescent="0.4">
-      <c r="M4" s="31" t="s">
-        <v>58</v>
+    <row r="5" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+    </row>
+    <row r="6" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+    </row>
+    <row r="7" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>24</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-    </row>
-    <row r="5" spans="13:17" x14ac:dyDescent="0.4">
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-    </row>
-    <row r="6" spans="13:17" x14ac:dyDescent="0.4">
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-    </row>
-    <row r="7" spans="13:17" x14ac:dyDescent="0.4">
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="C22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="D22" s="43" t="s">
         <v>27</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>28</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="43"/>
@@ -46835,73 +46835,73 @@
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
     </row>
-    <row r="23" spans="1:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>53</v>
+      <c r="D23" s="44" t="s">
+        <v>54</v>
       </c>
-      <c r="D23" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="34.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>2</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>56</v>
+      <c r="D24" s="45" t="s">
+        <v>55</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -46926,63 +46926,63 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="Q23" s="33" t="s">
-        <v>47</v>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="Q23" s="36" t="s">
+        <v>46</v>
       </c>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="23">
         <v>150</v>
@@ -46990,9 +46990,9 @@
       <c r="D28" s="21"/>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="7">
         <v>200</v>
@@ -47017,76 +47017,76 @@
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="41" t="s">
-        <v>42</v>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="48" t="s">
+        <v>41</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
     </row>
-    <row r="31" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
+    <row r="31" spans="1:14" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="F31" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="K31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="F31" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="K31" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -47110,7 +47110,7 @@
       <selection activeCell="H32" sqref="H31:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47126,7 +47126,7 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
